--- a/AAII_Financials/Yearly/IVAN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/IVAN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
   <si>
     <t>IVAN</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -665,8 +665,8 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -687,8 +687,8 @@
       <c r="D7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
-        <v>43830</v>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>3</v>
@@ -1430,8 +1430,8 @@
       <c r="D38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
-        <v>43830</v>
+      <c r="E38" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>3</v>
@@ -1481,25 +1481,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1589,25 +1589,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -2445,8 +2445,8 @@
       <c r="D80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
-        <v>43830</v>
+      <c r="E80" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>3</v>
